--- a/static/files/template_cs.xlsx
+++ b/static/files/template_cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\web\cs-dashboard\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C26123C-B4D1-44AF-9F3A-C5D6383E2727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52478865-3D5E-4420-9390-7F7190E599D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{3D1A1611-6198-4E6D-9502-DBB3D5316FB2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>nama_nasabah</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>tanggal</t>
+  </si>
+  <si>
+    <t>kanal_pengaduan</t>
   </si>
 </sst>
 </file>
@@ -415,59 +418,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16D5229-276B-4B67-AE1B-FB913F01BAC0}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{317D07AA-B2F7-4EEE-A636-3FA3131E38C2}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{317D07AA-B2F7-4EEE-A636-3FA3131E38C2}">
       <formula1>"test;test2;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{214E1DFB-5ED8-4FB7-9365-3A20F6B65DEE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{214E1DFB-5ED8-4FB7-9365-3A20F6B65DEE}">
       <formula1>"Informasi Pengajuan, Permintaan Kode OTP, Informasi Tenor, Informasi Tagihan, Informasi Denda, Pembatalan Pinjaman, Informasi Pencairan Dana, Perilaku Petugas Penagihan, Informasi Pembayaran, Discount / Pemutihan"</formula1>
     </dataValidation>
   </dataValidations>
